--- a/data/seq-metadata-2020.xlsx
+++ b/data/seq-metadata-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurajackson/J99_nextstrain4/J99_nextstrain/Hp-J99/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BA537A67-5D7F-EA4B-9537-4C90F009FB08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EC4F4D7-BD33-9446-AFCB-65BF9A739824}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1920" windowWidth="25440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="900" windowWidth="25440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_03_23_metadata4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="179" uniqueCount="53">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="253" uniqueCount="93">
   <si>
     <t>strain</t>
   </si>
@@ -190,13 +190,133 @@
   </si>
   <si>
     <t>BioSample_ID</t>
+  </si>
+  <si>
+    <t>PRJNA622860</t>
+  </si>
+  <si>
+    <t>SAMN14531033</t>
+  </si>
+  <si>
+    <t>SAMN14531034</t>
+  </si>
+  <si>
+    <t>SAMN14531035</t>
+  </si>
+  <si>
+    <t>SAMN14531036</t>
+  </si>
+  <si>
+    <t>SAMN14531037</t>
+  </si>
+  <si>
+    <t>SAMN14531038</t>
+  </si>
+  <si>
+    <t>SAMN14531039</t>
+  </si>
+  <si>
+    <t>SAMN14531040</t>
+  </si>
+  <si>
+    <t>SAMN14531041</t>
+  </si>
+  <si>
+    <t>SAMN14531042</t>
+  </si>
+  <si>
+    <t>SAMN14531043</t>
+  </si>
+  <si>
+    <t>SAMN14531044</t>
+  </si>
+  <si>
+    <t>SAMN14531045</t>
+  </si>
+  <si>
+    <t>SAMN14531046</t>
+  </si>
+  <si>
+    <t>SAMN14531047</t>
+  </si>
+  <si>
+    <t>SAMN14531048</t>
+  </si>
+  <si>
+    <t>SAMN14531049</t>
+  </si>
+  <si>
+    <t>SAMN14531050</t>
+  </si>
+  <si>
+    <t>SAMN14531051</t>
+  </si>
+  <si>
+    <t>SAMN14531052</t>
+  </si>
+  <si>
+    <t>SAMN14531053</t>
+  </si>
+  <si>
+    <t>SAMN14531054</t>
+  </si>
+  <si>
+    <t>SAMN14531055</t>
+  </si>
+  <si>
+    <t>SAMN14531056</t>
+  </si>
+  <si>
+    <t>SAMN14531057</t>
+  </si>
+  <si>
+    <t>SAMN14531058</t>
+  </si>
+  <si>
+    <t>SAMN14531059</t>
+  </si>
+  <si>
+    <t>SAMN14531021</t>
+  </si>
+  <si>
+    <t>SAMN14531022</t>
+  </si>
+  <si>
+    <t>SAMN14531023</t>
+  </si>
+  <si>
+    <t>SAMN14531024</t>
+  </si>
+  <si>
+    <t>SAMN14531025</t>
+  </si>
+  <si>
+    <t>SAMN14531026</t>
+  </si>
+  <si>
+    <t>SAMN14531027</t>
+  </si>
+  <si>
+    <t>SAMN14531028</t>
+  </si>
+  <si>
+    <t>SAMN14531029</t>
+  </si>
+  <si>
+    <t>SAMN14531030</t>
+  </si>
+  <si>
+    <t>SAMN14531031</t>
+  </si>
+  <si>
+    <t>SAMN14531032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,8 +451,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1D2228"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +648,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF846B"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -673,8 +817,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -722,6 +869,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF846B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1030,709 +1182,957 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>167.00739999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
         <v>140.5104</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>188.95400000000001</v>
       </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>105.9029</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>172.27940000000001</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>152.77529999999999</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>47.470440000000004</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
         <v>106.28400000000001</v>
       </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
         <v>178.56469999999999</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
         <v>155.07919999999999</v>
       </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
         <v>95.712540000000004</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
         <v>164.95699999999999</v>
       </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>179.6071</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>175.8039</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>237.75040000000001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>119.2664</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>189.79079999999999</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>115.9731</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>3.3673359999999999</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
         <v>91.46217</v>
       </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
         <v>119.908</v>
       </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
         <v>86.962140000000005</v>
       </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
         <v>125.3843</v>
       </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
         <v>7.8745529999999997</v>
       </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
         <v>131.0103</v>
       </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
         <v>14.225239999999999</v>
       </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/seq-metadata-2020.xlsx
+++ b/data/seq-metadata-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurajackson/J99_nextstrain4/J99_nextstrain/Hp-J99/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EC4F4D7-BD33-9446-AFCB-65BF9A739824}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC57D61B-6EAE-7C4B-ACA3-2AB16B6CABDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="900" windowWidth="25440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="5080" windowWidth="25440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_03_23_metadata4" sheetId="1" r:id="rId1"/>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,6 +1644,9 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C20" s="1">
+        <v>216.43289999999999</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1664,6 +1667,9 @@
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C21" s="1">
+        <v>187.66550000000001</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1684,6 +1690,9 @@
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C22" s="1">
+        <v>111.9965</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1704,6 +1713,9 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C23" s="1">
+        <v>249.59229999999999</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1724,6 +1736,9 @@
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C24" s="1">
+        <v>213.202</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1744,6 +1759,9 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C25" s="1">
+        <v>239.9674</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1764,6 +1782,9 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C26" s="1">
+        <v>172.05590000000001</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1823,6 +1844,9 @@
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C29" s="1">
+        <v>254.49080000000001</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1866,6 +1890,9 @@
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C31" s="1">
+        <v>194.75960000000001</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1886,6 +1913,9 @@
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C32" s="1">
+        <v>195.4864</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,6 +1936,9 @@
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C33" s="1">
+        <v>159.04689999999999</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1926,6 +1959,9 @@
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C34" s="1">
+        <v>240.82980000000001</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1946,6 +1982,9 @@
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C35" s="1">
+        <v>137.6455</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
@@ -1966,6 +2005,9 @@
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C36" s="1">
+        <v>109.9515</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1986,6 +2028,9 @@
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C37" s="1">
+        <v>122.22750000000001</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>50</v>
       </c>
@@ -2006,6 +2051,9 @@
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C38" s="1">
+        <v>79.667119999999997</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2025,6 +2073,9 @@
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.4345020000000002</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>50</v>
